--- a/results/sensitivity/penincillium_G.xlsx
+++ b/results/sensitivity/penincillium_G.xlsx
@@ -55,7 +55,7 @@
     <t>market for sulfuric acid</t>
   </si>
   <si>
-    <t>tap water production, underground water with disinfection</t>
+    <t>market for water, deionised</t>
   </si>
   <si>
     <t>manufacturing of raw penicillium G</t>
@@ -67,55 +67,55 @@
     <t>treatment of biowaste, municipal incineration</t>
   </si>
   <si>
-    <t>1.0915011895333158</t>
-  </si>
-  <si>
-    <t>1.404414449348814</t>
-  </si>
-  <si>
-    <t>2.896388501772911</t>
-  </si>
-  <si>
-    <t>7.072327360010565</t>
-  </si>
-  <si>
-    <t>28.157543964260977</t>
-  </si>
-  <si>
-    <t>3.608264648096263</t>
-  </si>
-  <si>
-    <t>7.339150021524475</t>
-  </si>
-  <si>
-    <t>0.5026626317990199</t>
-  </si>
-  <si>
-    <t>7.548780261251029</t>
-  </si>
-  <si>
-    <t>2.183625577253636</t>
-  </si>
-  <si>
-    <t>0.5203412976899304</t>
-  </si>
-  <si>
-    <t>0.004412391789456561</t>
-  </si>
-  <si>
-    <t>0.0011736501718806179</t>
-  </si>
-  <si>
-    <t>3.5350652810790355</t>
-  </si>
-  <si>
-    <t>0.0068972633835903355</t>
-  </si>
-  <si>
-    <t>0.15758696498557748</t>
-  </si>
-  <si>
-    <t>-0.2519567977506787</t>
+    <t>1.0915011789959204</t>
+  </si>
+  <si>
+    <t>1.4044144667855358</t>
+  </si>
+  <si>
+    <t>2.896388497525361</t>
+  </si>
+  <si>
+    <t>7.072326777651805</t>
+  </si>
+  <si>
+    <t>28.157543489605036</t>
+  </si>
+  <si>
+    <t>3.608264642782406</t>
+  </si>
+  <si>
+    <t>7.3391499303980705</t>
+  </si>
+  <si>
+    <t>0.503052879013989</t>
+  </si>
+  <si>
+    <t>7.548780280013951</t>
+  </si>
+  <si>
+    <t>2.2490876581265202</t>
+  </si>
+  <si>
+    <t>0.520341303464715</t>
+  </si>
+  <si>
+    <t>0.0044123921630157305</t>
+  </si>
+  <si>
+    <t>0.02796440517023021</t>
+  </si>
+  <si>
+    <t>3.5374012957409255</t>
+  </si>
+  <si>
+    <t>0.005401117245006083</t>
+  </si>
+  <si>
+    <t>0.15758697085276432</t>
+  </si>
+  <si>
+    <t>-0.25951011368274396</t>
   </si>
 </sst>
 </file>

--- a/results/sensitivity/penincillium_G.xlsx
+++ b/results/sensitivity/penincillium_G.xlsx
@@ -28,7 +28,7 @@
     <t>market for butyl acetate</t>
   </si>
   <si>
-    <t>market for electricity, low voltage</t>
+    <t>market group for electricity, low voltage</t>
   </si>
   <si>
     <t>glucose production</t>
@@ -67,55 +67,55 @@
     <t>treatment of biowaste, municipal incineration</t>
   </si>
   <si>
-    <t>1.0915011789959204</t>
-  </si>
-  <si>
-    <t>1.4044144667855358</t>
-  </si>
-  <si>
-    <t>2.896388497525361</t>
-  </si>
-  <si>
-    <t>7.072326777651805</t>
-  </si>
-  <si>
-    <t>28.157543489605036</t>
-  </si>
-  <si>
-    <t>3.608264642782406</t>
-  </si>
-  <si>
-    <t>7.3391499303980705</t>
-  </si>
-  <si>
-    <t>0.503052879013989</t>
-  </si>
-  <si>
-    <t>7.548780280013951</t>
-  </si>
-  <si>
-    <t>2.2490876581265202</t>
-  </si>
-  <si>
-    <t>0.520341303464715</t>
-  </si>
-  <si>
-    <t>0.0044123921630157305</t>
-  </si>
-  <si>
-    <t>0.02796440517023021</t>
-  </si>
-  <si>
-    <t>3.5374012957409255</t>
-  </si>
-  <si>
-    <t>0.005401117245006083</t>
-  </si>
-  <si>
-    <t>0.15758697085276432</t>
-  </si>
-  <si>
-    <t>-0.25951011368274396</t>
+    <t>1.0915011953174119</t>
+  </si>
+  <si>
+    <t>1.4044144666664753</t>
+  </si>
+  <si>
+    <t>2.896388484057672</t>
+  </si>
+  <si>
+    <t>28.92801516062442</t>
+  </si>
+  <si>
+    <t>28.157543718411347</t>
+  </si>
+  <si>
+    <t>3.608264630412811</t>
+  </si>
+  <si>
+    <t>7.3391498862125335</t>
+  </si>
+  <si>
+    <t>0.5030528406545951</t>
+  </si>
+  <si>
+    <t>7.548780255564951</t>
+  </si>
+  <si>
+    <t>2.2490876409099623</t>
+  </si>
+  <si>
+    <t>0.520341299790922</t>
+  </si>
+  <si>
+    <t>0.004412392258567559</t>
+  </si>
+  <si>
+    <t>0.027964405176645283</t>
+  </si>
+  <si>
+    <t>4.436228291746206</t>
+  </si>
+  <si>
+    <t>0.005401117430535435</t>
+  </si>
+  <si>
+    <t>0.15758696476598016</t>
+  </si>
+  <si>
+    <t>-0.2595101131054631</t>
   </si>
 </sst>
 </file>

--- a/results/sensitivity/penincillium_G.xlsx
+++ b/results/sensitivity/penincillium_G.xlsx
@@ -67,55 +67,55 @@
     <t>treatment of biowaste, municipal incineration</t>
   </si>
   <si>
-    <t>1.0915011953174119</t>
-  </si>
-  <si>
-    <t>1.4044144666664753</t>
-  </si>
-  <si>
-    <t>2.896388484057672</t>
-  </si>
-  <si>
-    <t>28.92801516062442</t>
-  </si>
-  <si>
-    <t>28.157543718411347</t>
-  </si>
-  <si>
-    <t>3.608264630412811</t>
-  </si>
-  <si>
-    <t>7.3391498862125335</t>
-  </si>
-  <si>
-    <t>0.5030528406545951</t>
-  </si>
-  <si>
-    <t>7.548780255564951</t>
-  </si>
-  <si>
-    <t>2.2490876409099623</t>
-  </si>
-  <si>
-    <t>0.520341299790922</t>
-  </si>
-  <si>
-    <t>0.004412392258567559</t>
-  </si>
-  <si>
-    <t>0.027964405176645283</t>
-  </si>
-  <si>
-    <t>4.436228291746206</t>
-  </si>
-  <si>
-    <t>0.005401117430535435</t>
-  </si>
-  <si>
-    <t>0.15758696476598016</t>
-  </si>
-  <si>
-    <t>-0.2595101131054631</t>
+    <t>0.21947712103246275</t>
+  </si>
+  <si>
+    <t>0.24636560033183316</t>
+  </si>
+  <si>
+    <t>0.4939143172288267</t>
+  </si>
+  <si>
+    <t>19.56203401821489</t>
+  </si>
+  <si>
+    <t>5.162084577017008</t>
+  </si>
+  <si>
+    <t>0.6904351914668686</t>
+  </si>
+  <si>
+    <t>2.692251481847097</t>
+  </si>
+  <si>
+    <t>0.08394987852878062</t>
+  </si>
+  <si>
+    <t>0.12486940611877054</t>
+  </si>
+  <si>
+    <t>0.37243162966642673</t>
+  </si>
+  <si>
+    <t>0.08672355044194552</t>
+  </si>
+  <si>
+    <t>0.0010707733670760106</t>
+  </si>
+  <si>
+    <t>0.005060038771675976</t>
+  </si>
+  <si>
+    <t>1.3848248060950545</t>
+  </si>
+  <si>
+    <t>0.001149543910940982</t>
+  </si>
+  <si>
+    <t>0.026264491388907896</t>
+  </si>
+  <si>
+    <t>-0.042972879516154035</t>
   </si>
 </sst>
 </file>
